--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Fbln1-Itgb1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Fbln1-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>71.6917402854739</v>
+        <v>0.08550066666666667</v>
       </c>
       <c r="H2">
-        <v>71.6917402854739</v>
+        <v>0.256502</v>
       </c>
       <c r="I2">
-        <v>0.963728319453206</v>
+        <v>0.001136245970483483</v>
       </c>
       <c r="J2">
-        <v>0.963728319453206</v>
+        <v>0.001136245970483483</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.516711488548</v>
+        <v>112.513392</v>
       </c>
       <c r="N2">
-        <v>105.516711488548</v>
+        <v>337.540176</v>
       </c>
       <c r="O2">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="P2">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="Q2">
-        <v>7564.676675814263</v>
+        <v>9.619970024928</v>
       </c>
       <c r="R2">
-        <v>7564.676675814263</v>
+        <v>86.57973022435199</v>
       </c>
       <c r="S2">
-        <v>0.3030470262075696</v>
+        <v>0.0003721561172607291</v>
       </c>
       <c r="T2">
-        <v>0.3030470262075696</v>
+        <v>0.0003721561172607291</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>71.6917402854739</v>
+        <v>0.08550066666666667</v>
       </c>
       <c r="H3">
-        <v>71.6917402854739</v>
+        <v>0.256502</v>
       </c>
       <c r="I3">
-        <v>0.963728319453206</v>
+        <v>0.001136245970483483</v>
       </c>
       <c r="J3">
-        <v>0.963728319453206</v>
+        <v>0.001136245970483483</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>106.175494972697</v>
+        <v>106.314466</v>
       </c>
       <c r="N3">
-        <v>106.175494972697</v>
+        <v>318.943398</v>
       </c>
       <c r="O3">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441663</v>
       </c>
       <c r="P3">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441664</v>
       </c>
       <c r="Q3">
-        <v>7611.906010264232</v>
+        <v>9.089957719310666</v>
       </c>
       <c r="R3">
-        <v>7611.906010264232</v>
+        <v>81.809619473796</v>
       </c>
       <c r="S3">
-        <v>0.3049390712966329</v>
+        <v>0.0003516521737715257</v>
       </c>
       <c r="T3">
-        <v>0.3049390712966329</v>
+        <v>0.0003516521737715258</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>71.6917402854739</v>
+        <v>0.08550066666666667</v>
       </c>
       <c r="H4">
-        <v>71.6917402854739</v>
+        <v>0.256502</v>
       </c>
       <c r="I4">
-        <v>0.963728319453206</v>
+        <v>0.001136245970483483</v>
       </c>
       <c r="J4">
-        <v>0.963728319453206</v>
+        <v>0.001136245970483483</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>123.864437369458</v>
+        <v>124.6916553333333</v>
       </c>
       <c r="N4">
-        <v>123.864437369458</v>
+        <v>374.074966</v>
       </c>
       <c r="O4">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="P4">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="Q4">
-        <v>8880.05707449753</v>
+        <v>10.66121965877022</v>
       </c>
       <c r="R4">
-        <v>8880.05707449753</v>
+        <v>95.95097692893201</v>
       </c>
       <c r="S4">
-        <v>0.3557422219490035</v>
+        <v>0.0004124376794512285</v>
       </c>
       <c r="T4">
-        <v>0.3557422219490035</v>
+        <v>0.0004124376794512286</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.69824996214059</v>
+        <v>72.45391466666668</v>
       </c>
       <c r="H5">
-        <v>2.69824996214059</v>
+        <v>217.361744</v>
       </c>
       <c r="I5">
-        <v>0.03627168054679394</v>
+        <v>0.9628634699037922</v>
       </c>
       <c r="J5">
-        <v>0.03627168054679394</v>
+        <v>0.9628634699037921</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>105.516711488548</v>
+        <v>112.513392</v>
       </c>
       <c r="N5">
-        <v>105.516711488548</v>
+        <v>337.540176</v>
       </c>
       <c r="O5">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="P5">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="Q5">
-        <v>284.7104627791742</v>
+        <v>8152.035702825217</v>
       </c>
       <c r="R5">
-        <v>284.7104627791742</v>
+        <v>73368.32132542695</v>
       </c>
       <c r="S5">
-        <v>0.01140572991721717</v>
+        <v>0.3153679218410016</v>
       </c>
       <c r="T5">
-        <v>0.01140572991721717</v>
+        <v>0.3153679218410015</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.69824996214059</v>
+        <v>72.45391466666668</v>
       </c>
       <c r="H6">
-        <v>2.69824996214059</v>
+        <v>217.361744</v>
       </c>
       <c r="I6">
-        <v>0.03627168054679394</v>
+        <v>0.9628634699037922</v>
       </c>
       <c r="J6">
-        <v>0.03627168054679394</v>
+        <v>0.9628634699037921</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>106.175494972697</v>
+        <v>106.314466</v>
       </c>
       <c r="N6">
-        <v>106.175494972697</v>
+        <v>318.943398</v>
       </c>
       <c r="O6">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441663</v>
       </c>
       <c r="P6">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441664</v>
       </c>
       <c r="Q6">
-        <v>286.488025290338</v>
+        <v>7702.899247396235</v>
       </c>
       <c r="R6">
-        <v>286.488025290338</v>
+        <v>69326.09322656611</v>
       </c>
       <c r="S6">
-        <v>0.0114769404997697</v>
+        <v>0.2979927243154826</v>
       </c>
       <c r="T6">
-        <v>0.0114769404997697</v>
+        <v>0.2979927243154826</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>72.45391466666668</v>
+      </c>
+      <c r="H7">
+        <v>217.361744</v>
+      </c>
+      <c r="I7">
+        <v>0.9628634699037922</v>
+      </c>
+      <c r="J7">
+        <v>0.9628634699037921</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>124.6916553333333</v>
+      </c>
+      <c r="N7">
+        <v>374.074966</v>
+      </c>
+      <c r="O7">
+        <v>0.3629827433189773</v>
+      </c>
+      <c r="P7">
+        <v>0.3629827433189773</v>
+      </c>
+      <c r="Q7">
+        <v>9034.398555166747</v>
+      </c>
+      <c r="R7">
+        <v>81309.58699650072</v>
+      </c>
+      <c r="S7">
+        <v>0.349502823747308</v>
+      </c>
+      <c r="T7">
+        <v>0.3495028237473081</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.708963</v>
+      </c>
+      <c r="H8">
+        <v>8.126889</v>
+      </c>
+      <c r="I8">
+        <v>0.03600028412572435</v>
+      </c>
+      <c r="J8">
+        <v>0.03600028412572434</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>112.513392</v>
+      </c>
+      <c r="N8">
+        <v>337.540176</v>
+      </c>
+      <c r="O8">
+        <v>0.3275312977368564</v>
+      </c>
+      <c r="P8">
+        <v>0.3275312977368564</v>
+      </c>
+      <c r="Q8">
+        <v>304.794615932496</v>
+      </c>
+      <c r="R8">
+        <v>2743.151543392464</v>
+      </c>
+      <c r="S8">
+        <v>0.01179121977859405</v>
+      </c>
+      <c r="T8">
+        <v>0.01179121977859404</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>2.69824996214059</v>
-      </c>
-      <c r="H7">
-        <v>2.69824996214059</v>
-      </c>
-      <c r="I7">
-        <v>0.03627168054679394</v>
-      </c>
-      <c r="J7">
-        <v>0.03627168054679394</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>123.864437369458</v>
-      </c>
-      <c r="N7">
-        <v>123.864437369458</v>
-      </c>
-      <c r="O7">
-        <v>0.3691312320788105</v>
-      </c>
-      <c r="P7">
-        <v>0.3691312320788105</v>
-      </c>
-      <c r="Q7">
-        <v>334.2172134427055</v>
-      </c>
-      <c r="R7">
-        <v>334.2172134427055</v>
-      </c>
-      <c r="S7">
-        <v>0.01338901012980707</v>
-      </c>
-      <c r="T7">
-        <v>0.01338901012980707</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.708963</v>
+      </c>
+      <c r="H9">
+        <v>8.126889</v>
+      </c>
+      <c r="I9">
+        <v>0.03600028412572435</v>
+      </c>
+      <c r="J9">
+        <v>0.03600028412572434</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>106.314466</v>
+      </c>
+      <c r="N9">
+        <v>318.943398</v>
+      </c>
+      <c r="O9">
+        <v>0.3094859589441663</v>
+      </c>
+      <c r="P9">
+        <v>0.3094859589441664</v>
+      </c>
+      <c r="Q9">
+        <v>288.001954758758</v>
+      </c>
+      <c r="R9">
+        <v>2592.017592828822</v>
+      </c>
+      <c r="S9">
+        <v>0.01114158245491225</v>
+      </c>
+      <c r="T9">
+        <v>0.01114158245491225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.708963</v>
+      </c>
+      <c r="H10">
+        <v>8.126889</v>
+      </c>
+      <c r="I10">
+        <v>0.03600028412572435</v>
+      </c>
+      <c r="J10">
+        <v>0.03600028412572434</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>124.6916553333333</v>
+      </c>
+      <c r="N10">
+        <v>374.074966</v>
+      </c>
+      <c r="O10">
+        <v>0.3629827433189773</v>
+      </c>
+      <c r="P10">
+        <v>0.3629827433189773</v>
+      </c>
+      <c r="Q10">
+        <v>337.7850807067528</v>
+      </c>
+      <c r="R10">
+        <v>3040.065726360774</v>
+      </c>
+      <c r="S10">
+        <v>0.01306748189221805</v>
+      </c>
+      <c r="T10">
+        <v>0.01306748189221805</v>
       </c>
     </row>
   </sheetData>
